--- a/Anotações/Modulo 03/Aulas Módulo 03.xlsx
+++ b/Anotações/Modulo 03/Aulas Módulo 03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5-CSS-CeV/Modulo 03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49F191-E24F-0F4A-8F16-A7E2E6EA76DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59922366-1579-3E46-B7FD-0DC9E31D5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17380" yWindow="460" windowWidth="20960" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
+    <workbookView xWindow="17440" yWindow="460" windowWidth="20960" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <rPr>
@@ -171,6 +171,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Gerenciando Repositórios GitHub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 06:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hospedando site gratuitamente com GitHub Pages</t>
     </r>
   </si>
 </sst>
@@ -779,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEEE8B7-4280-884E-B98F-2A59710F6108}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,7 +852,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -839,7 +861,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -848,6 +870,17 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
+    <row r="38" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Anotações/Modulo 03/Aulas Módulo 03.xlsx
+++ b/Anotações/Modulo 03/Aulas Módulo 03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59922366-1579-3E46-B7FD-0DC9E31D5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F4C16-166F-E349-A888-69AAC696C82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17440" yWindow="460" windowWidth="20960" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
+    <workbookView xWindow="20540" yWindow="460" windowWidth="17780" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -194,13 +194,140 @@
       </rPr>
       <t xml:space="preserve"> Hospedando site gratuitamente com GitHub Pages</t>
     </r>
+  </si>
+  <si>
+    <t>URL projeto Android:</t>
+  </si>
+  <si>
+    <t>URL ex001:</t>
+  </si>
+  <si>
+    <t>Site para criar qr code:</t>
+  </si>
+  <si>
+    <t>https://www.qr-code-generator.com/a1/?gclid=Cj0KCQjw9deiBhC1ARIsAHLjR2D3Jl-1VWxt7xW_TrKwnmsqt4zEaxxMv8CdtsXyAEfHcnX9LJv2LtcaAoAmEALw_wcB&amp;campaignid=9725198318&amp;adgroupid=99974822872&amp;cpid=8794173e-3373-43ee-aae4-c99e709be5f8&amp;gad=1&amp;gclid=Cj0KCQjw9deiBhC1ARIsAHLjR2D3Jl-1VWxt7xW_TrKwnmsqt4zEaxxMv8CdtsXyAEfHcnX9LJv2LtcaAoAmEALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gabrielscarrara.github.io/projeto-android/ </t>
+  </si>
+  <si>
+    <t>QR-code do site projeto-android:</t>
+  </si>
+  <si>
+    <t>https://gabrielscarrara.github.io/HTML5-CSS-CeV/HTML5-CSS-CeV/Exerc%C3%ADcios/ex001/index.html</t>
+  </si>
+  <si>
+    <t>URL ex002:</t>
+  </si>
+  <si>
+    <t>https://gabrielscarrara.github.io/HTML5-CSS-CeV/HTML5-CSS-CeV/Exerc%C3%ADcios/ex002/index.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 07:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manutenção em sites hospedados no GitHub Pages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 08:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recursos Sociais do GitHub</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 09:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Clonando Repositórios GitHub</t>
+    </r>
+  </si>
+  <si>
+    <t>Usar git Hub como uma rede social (da pra seguir perfis, ver projetos dos outros, dar estrela...)</t>
+  </si>
+  <si>
+    <t>No GitHub</t>
+  </si>
+  <si>
+    <t>Repositório &gt; Code &gt; Local &gt; Open with GitHub Desktop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 10:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GitHub em vários PCs</t>
+    </r>
+  </si>
+  <si>
+    <t>(Aula para entrar no repositório em outro computador e sair sem deixar rastros)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +357,20 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Corpo)"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,16 +395,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,8 +522,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>83764</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>794964</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -497,6 +642,55 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF427C6-9F6F-3149-B9CB-827E3BCE8993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="9232900"/>
+          <a:ext cx="1155700" cy="1155700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -801,13 +995,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEEE8B7-4280-884E-B98F-2A59710F6108}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -881,8 +1078,105 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D42" r:id="rId1" xr:uid="{A6C809BC-79F6-FB4C-8F1C-38062D4A4926}"/>
+    <hyperlink ref="D41" r:id="rId2" xr:uid="{02304942-42A0-3B49-B2FE-7147B64BFEE8}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Anotações/Modulo 03/Aulas Módulo 03.xlsx
+++ b/Anotações/Modulo 03/Aulas Módulo 03.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F4C16-166F-E349-A888-69AAC696C82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D80B3F-1468-FF41-84D1-37BBB7DECCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="460" windowWidth="17780" windowHeight="16360" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
+    <workbookView xWindow="20540" yWindow="460" windowWidth="17780" windowHeight="16360" activeTab="1" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
+    <sheet name="19" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -321,6 +322,28 @@
   </si>
   <si>
     <t>(Aula para entrar no repositório em outro computador e sair sem deixar rastros)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 01:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Download das imagens do capítulo</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -997,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEEE8B7-4280-884E-B98F-2A59710F6108}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,4 +1202,28 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F8ED4-5369-3849-AA60-B6C7EC1945A2}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Anotações/Modulo 03/Aulas Módulo 03.xlsx
+++ b/Anotações/Modulo 03/Aulas Módulo 03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielcarrara/Documents/Cursos/HTML5 e CSS -CeV/Anotações/Modulo 03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D80B3F-1468-FF41-84D1-37BBB7DECCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1359EE47-643D-F14C-BD5C-200DD1B681BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="460" windowWidth="17780" windowHeight="16360" activeTab="1" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
+    <workbookView xWindow="18980" yWindow="460" windowWidth="19420" windowHeight="18600" activeTab="1" xr2:uid="{D1EEB8D1-98D6-FF45-B455-A9CB82193D11}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -343,6 +343,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Download das imagens do capítulo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>Aula 02:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Colocando a imagem de fundo no seu site</t>
     </r>
   </si>
 </sst>
@@ -1206,15 +1228,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F8ED4-5369-3849-AA60-B6C7EC1945A2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1223,6 +1245,16 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
